--- a/data_migration/data/ingreso_joyas_acero.xlsx
+++ b/data_migration/data/ingreso_joyas_acero.xlsx
@@ -22,20 +22,19 @@
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">pulseras!$A$1:$O$81</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">pulseras_varios!$A$1:$J$62</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">collares!$A$1:$M$62</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">anillos!$A$1:$L$51</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">juegos!$A$1:$K$119</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">anillos!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="UhXhf4zLWl0JABxEaiOaImDRLwsCgYxVSc7gFeN3VXk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="Euz3qAUM9amaTPeYKxShInBn3sazshpoX6uL++x3BoY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="1793">
   <si>
     <t>fecha_compra</t>
   </si>
@@ -4519,7 +4518,7 @@
     <t>disco manchas leoprdo, plat, dor, rose</t>
   </si>
   <si>
-    <t>oferta</t>
+    <t>oferta entrego 25/06/24</t>
   </si>
   <si>
     <t>SSJ0001</t>
@@ -5243,9 +5242,6 @@
   </si>
   <si>
     <t>collar aretes disco manchas leopardo, 3 col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oferta </t>
   </si>
   <si>
     <t>ingreso_25/06/24</t>
@@ -5671,7 +5667,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5758,6 +5754,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="169" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyFont="1"/>
@@ -16917,7 +16916,7 @@
       <c r="A8" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>1502</v>
       </c>
       <c r="C8" s="6"/>
@@ -17534,7 +17533,7 @@
       <c r="A34" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>1554</v>
       </c>
       <c r="C34" s="6">
@@ -18136,7 +18135,7 @@
       <c r="A59" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="57" t="s">
         <v>1605</v>
       </c>
       <c r="C59" s="6">
@@ -18716,7 +18715,7 @@
       <c r="A83" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="57" t="s">
         <v>1655</v>
       </c>
       <c r="C83" s="6"/>
@@ -18906,7 +18905,7 @@
       <c r="A91" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="59" t="s">
         <v>1671</v>
       </c>
       <c r="C91" s="6">
@@ -19122,7 +19121,7 @@
       <c r="A100" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="57" t="s">
         <v>1689</v>
       </c>
       <c r="C100" s="6"/>
@@ -19265,7 +19264,7 @@
       <c r="A106" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="57" t="s">
         <v>1701</v>
       </c>
       <c r="C106" s="6"/>
@@ -19407,36 +19406,35 @@
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="59">
+      <c r="A112" s="60">
         <v>45418.0</v>
       </c>
-      <c r="B112" s="60" t="s">
+      <c r="B112" s="61" t="s">
         <v>1713</v>
       </c>
       <c r="C112" s="38"/>
-      <c r="D112" s="60">
+      <c r="D112" s="61">
         <v>1.0</v>
       </c>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60">
+      <c r="E112" s="61"/>
+      <c r="F112" s="61">
         <v>8.0</v>
       </c>
-      <c r="G112" s="60">
+      <c r="G112" s="61">
         <v>22.8</v>
       </c>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="61" t="s">
         <v>1714</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J112" s="6"/>
-      <c r="K112" s="13" t="s">
+      <c r="J112" s="13" t="s">
         <v>1715</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="61">
+      <c r="A113" s="62">
         <v>45418.0</v>
       </c>
       <c r="B113" s="13" t="s">
@@ -19459,7 +19457,7 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="61">
+      <c r="A114" s="62">
         <v>45418.0</v>
       </c>
       <c r="B114" s="13" t="s">
@@ -19482,7 +19480,7 @@
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="61">
+      <c r="A115" s="62">
         <v>45418.0</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -19505,7 +19503,7 @@
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="61">
+      <c r="A116" s="62">
         <v>45418.0</v>
       </c>
       <c r="B116" s="13" t="s">
@@ -19528,7 +19526,7 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="61">
+      <c r="A117" s="62">
         <v>45418.0</v>
       </c>
       <c r="B117" s="13" t="s">
@@ -19551,7 +19549,7 @@
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="61">
+      <c r="A118" s="62">
         <v>45418.0</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -19595,11 +19593,8 @@
       <c r="I119" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J119" s="13" t="s">
-        <v>1731</v>
-      </c>
-      <c r="K119" s="13" t="s">
-        <v>768</v>
+      <c r="J119" s="56" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1"/>
@@ -20484,7 +20479,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$K$119"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -20514,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>9</v>
@@ -20528,13 +20522,16 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="40" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1733</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1734</v>
       </c>
       <c r="C2" s="13">
         <v>3.0</v>
@@ -20546,13 +20543,13 @@
         <v>16.5</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>1736</v>
+      <c r="H2" s="13" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="3">
@@ -20560,7 +20557,7 @@
         <v>765</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C3" s="13">
         <v>9.0</v>
@@ -20572,7 +20569,7 @@
         <v>12.0</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>16</v>
@@ -20583,7 +20580,7 @@
         <v>765</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C4" s="13">
         <v>5.0</v>
@@ -20595,7 +20592,7 @@
         <v>14.0</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>16</v>
@@ -20606,7 +20603,7 @@
         <v>765</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C5" s="13">
         <v>12.0</v>
@@ -20618,7 +20615,7 @@
         <v>10.0</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>16</v>
@@ -20643,14 +20640,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>1743</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>1744</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="2">
@@ -20666,7 +20663,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B3" s="13">
         <v>111.0</v>
@@ -20688,7 +20685,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B5" s="13">
         <v>50.0</v>
@@ -20699,7 +20696,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B6" s="13">
         <v>44.0</v>
@@ -20716,12 +20713,12 @@
         <v>29.0</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B8" s="13">
         <v>27.0</v>
@@ -20732,7 +20729,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B9" s="13">
         <v>25.0</v>
@@ -20743,7 +20740,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B10" s="13">
         <v>22.0</v>
@@ -20765,7 +20762,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B12" s="13">
         <v>10.0</v>
@@ -20776,7 +20773,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B13" s="13">
         <v>9.0</v>
@@ -20787,7 +20784,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B14" s="13">
         <v>7.0</v>
@@ -20798,7 +20795,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B15" s="13">
         <v>7.0</v>
@@ -20809,7 +20806,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B16" s="13">
         <v>7.0</v>
@@ -20820,7 +20817,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B17" s="13">
         <v>6.0</v>
@@ -20831,7 +20828,7 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B18" s="13">
         <v>6.0</v>
@@ -20842,7 +20839,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B19" s="13">
         <v>5.0</v>
@@ -20853,7 +20850,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B20" s="13">
         <v>5.0</v>
@@ -20864,7 +20861,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B21" s="13">
         <v>5.0</v>
@@ -20875,7 +20872,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B22" s="13">
         <v>5.0</v>
@@ -20886,7 +20883,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B23" s="13">
         <v>4.0</v>
@@ -20897,7 +20894,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B24" s="13">
         <v>4.0</v>
@@ -20908,18 +20905,18 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B25" s="13">
         <v>3.0</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B26" s="13">
         <v>3.0</v>
@@ -20930,7 +20927,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B27" s="13">
         <v>3.0</v>
@@ -20941,7 +20938,7 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B28" s="13">
         <v>3.0</v>
@@ -20952,7 +20949,7 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B29" s="13">
         <v>2.0</v>
@@ -20963,7 +20960,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B30" s="13">
         <v>2.0</v>
@@ -20974,18 +20971,18 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B31" s="13">
         <v>2.0</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B32" s="13">
         <v>2.0</v>
@@ -20996,7 +20993,7 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B33" s="13">
         <v>2.0</v>
@@ -21007,7 +21004,7 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B34" s="13">
         <v>2.0</v>
@@ -21018,7 +21015,7 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B35" s="13">
         <v>1.0</v>
@@ -21029,7 +21026,7 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B36" s="13">
         <v>1.0</v>
@@ -21040,7 +21037,7 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B37" s="13">
         <v>1.0</v>
@@ -21051,7 +21048,7 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B38" s="13">
         <v>1.0</v>
@@ -21062,7 +21059,7 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B39" s="13">
         <v>1.0</v>
@@ -21073,18 +21070,18 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B40" s="13">
         <v>1.0</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B41" s="13">
         <v>1.0</v>
@@ -21095,18 +21092,18 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B42" s="13">
         <v>1.0</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B43" s="13">
         <v>1.0</v>
@@ -21117,7 +21114,7 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B44" s="13">
         <v>1.0</v>
@@ -21128,7 +21125,7 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B45" s="13">
         <v>1.0</v>
@@ -21139,7 +21136,7 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B46" s="13">
         <v>1.0</v>
@@ -21150,13 +21147,13 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B47" s="13">
         <v>1.0</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="48">
@@ -21183,7 +21180,7 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B50" s="13">
         <v>1.0</v>
@@ -21194,7 +21191,7 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B51" s="13">
         <v>1.0</v>
@@ -21205,13 +21202,13 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B52" s="13">
         <v>1.0</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -37072,11 +37069,8 @@
       <c r="J51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="56" t="s">
         <v>1489</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
@@ -38029,7 +38023,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$L$51"/>
+  <autoFilter ref="$A$1:$K$51"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/data_migration/data/ingreso_joyas_acero.xlsx
+++ b/data_migration/data/ingreso_joyas_acero.xlsx
@@ -5674,7 +5674,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5755,6 +5755,9 @@
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -16304,7 +16307,7 @@
       <c r="A8" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>1502</v>
       </c>
       <c r="C8" s="6"/>
@@ -16921,7 +16924,7 @@
       <c r="A34" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="59" t="s">
         <v>1554</v>
       </c>
       <c r="C34" s="6">
@@ -17523,7 +17526,7 @@
       <c r="A59" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="58" t="s">
         <v>1605</v>
       </c>
       <c r="C59" s="6">
@@ -18103,7 +18106,7 @@
       <c r="A83" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="58" t="s">
         <v>1655</v>
       </c>
       <c r="C83" s="6"/>
@@ -18293,7 +18296,7 @@
       <c r="A91" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="60" t="s">
         <v>1671</v>
       </c>
       <c r="C91" s="6">
@@ -18509,7 +18512,7 @@
       <c r="A100" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="58" t="s">
         <v>1689</v>
       </c>
       <c r="C100" s="6"/>
@@ -18652,7 +18655,7 @@
       <c r="A106" s="25">
         <v>44411.0</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="58" t="s">
         <v>1701</v>
       </c>
       <c r="C106" s="6"/>
@@ -18794,24 +18797,24 @@
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="60">
+      <c r="A112" s="61">
         <v>45418.0</v>
       </c>
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="62" t="s">
         <v>1713</v>
       </c>
       <c r="C112" s="38"/>
-      <c r="D112" s="61">
+      <c r="D112" s="62">
         <v>1.0</v>
       </c>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61">
+      <c r="E112" s="62"/>
+      <c r="F112" s="62">
         <v>8.0</v>
       </c>
-      <c r="G112" s="61">
+      <c r="G112" s="62">
         <v>22.8</v>
       </c>
-      <c r="H112" s="61" t="s">
+      <c r="H112" s="62" t="s">
         <v>1714</v>
       </c>
       <c r="I112" s="6" t="s">
@@ -18822,7 +18825,7 @@
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62">
+      <c r="A113" s="63">
         <v>45418.0</v>
       </c>
       <c r="B113" s="13" t="s">
@@ -18845,7 +18848,7 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62">
+      <c r="A114" s="63">
         <v>45418.0</v>
       </c>
       <c r="B114" s="13" t="s">
@@ -18868,7 +18871,7 @@
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62">
+      <c r="A115" s="63">
         <v>45418.0</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -18891,7 +18894,7 @@
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62">
+      <c r="A116" s="63">
         <v>45418.0</v>
       </c>
       <c r="B116" s="13" t="s">
@@ -18914,7 +18917,7 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62">
+      <c r="A117" s="63">
         <v>45418.0</v>
       </c>
       <c r="B117" s="13" t="s">
@@ -18937,7 +18940,7 @@
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62">
+      <c r="A118" s="63">
         <v>45418.0</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -18960,7 +18963,7 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="63" t="s">
+      <c r="A119" s="64" t="s">
         <v>1729</v>
       </c>
       <c r="B119" s="13" t="s">
@@ -18981,7 +18984,7 @@
       <c r="I119" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J119" s="56" t="s">
+      <c r="J119" s="57" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -19014,7 +19017,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>1732</v>
       </c>
       <c r="D1" s="43" t="s">
@@ -19029,7 +19032,7 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
     </row>
@@ -19147,13 +19150,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>1743</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>1744</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>1745</v>
       </c>
     </row>
@@ -24517,7 +24520,8 @@
     <col customWidth="1" min="1" max="2" width="10.71"/>
     <col customWidth="1" min="3" max="3" width="20.71"/>
     <col customWidth="1" min="4" max="4" width="17.71"/>
-    <col customWidth="1" min="5" max="7" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="18.71"/>
+    <col customWidth="1" min="6" max="7" width="10.71"/>
     <col customWidth="1" min="8" max="8" width="45.43"/>
     <col customWidth="1" min="9" max="9" width="11.29"/>
     <col customWidth="1" min="10" max="10" width="10.71"/>
@@ -25431,7 +25435,12 @@
       </c>
       <c r="C37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="G37" s="40">
+        <v>7.5</v>
+      </c>
       <c r="H37" s="13" t="s">
         <v>1208</v>
       </c>
@@ -25448,7 +25457,12 @@
       </c>
       <c r="C38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="G38" s="40">
+        <v>6.0</v>
+      </c>
       <c r="H38" s="13" t="s">
         <v>1208</v>
       </c>
@@ -25465,7 +25479,12 @@
       </c>
       <c r="C39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="G39" s="40">
+        <v>8.5</v>
+      </c>
       <c r="H39" s="13" t="s">
         <v>1208</v>
       </c>
@@ -25582,7 +25601,12 @@
       <c r="E44" s="6">
         <v>4.0</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="G44" s="40">
+        <v>9.5</v>
+      </c>
       <c r="H44" s="13" t="s">
         <v>1208</v>
       </c>
@@ -25647,7 +25671,12 @@
         <v>1.0</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="53">
+        <v>6.0</v>
+      </c>
+      <c r="G47" s="40">
+        <v>15.8</v>
+      </c>
       <c r="H47" s="13" t="s">
         <v>1208</v>
       </c>
@@ -25738,7 +25767,12 @@
       </c>
       <c r="C51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="G51" s="40">
+        <v>9.5</v>
+      </c>
       <c r="H51" s="13" t="s">
         <v>1208</v>
       </c>
@@ -25805,7 +25839,12 @@
       </c>
       <c r="C54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="G54" s="40">
+        <v>15.7</v>
+      </c>
       <c r="H54" s="13" t="s">
         <v>1208</v>
       </c>
@@ -26039,7 +26078,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -26844,7 +26883,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="55" t="s">
         <v>1317</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -27598,7 +27637,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>1381</v>
       </c>
       <c r="D1" s="43" t="s">
@@ -28902,7 +28941,7 @@
       <c r="J51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="56" t="s">
+      <c r="K51" s="57" t="s">
         <v>1489</v>
       </c>
     </row>
